--- a/data/precos_carrefour_2025-09.xlsx
+++ b/data/precos_carrefour_2025-09.xlsx
@@ -448,351 +448,351 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arroz Branco Longo-fino Tipo 1 Tio João 2Kg</t>
+          <t>Achocolatado em Pó Nescau 550g</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.29</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Feijão Carioca Tipo 1 Kicaldo 1Kg</t>
+          <t>Acém em Pedaços Carrefour Aproximadamente 500 g</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.99</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Macarrão de Sêmola com Ovos Espaguete 8 Adria 500g</t>
+          <t>Alcatra Bovina Carrefour Aproximadamente 400 g</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Nissin Sabor Galinha Caipira 85g</t>
+          <t>Alface Lisa Carrefour</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.69</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Batata Monalisa Carrefour Aprox. 600g</t>
+          <t>Arroz Branco Longo-fino Tipo 1 Tio João 2Kg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.99</v>
+        <v>15.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tomate Carmem Carrefour Aprox. 500g</t>
+          <t>Açúcar Refinado União 1kg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cebola Carrefour Aprox. 500g</t>
+          <t>Banana Nanica Fresca Orgânica  600g</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.99</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cenoura Único 1Kg</t>
+          <t>Banana Prata Fischer Turma da Mônica 750g</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.19</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Açúcar Refinado União 1kg</t>
+          <t>Batata Monalisa Carrefour Aprox. 600g</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.69</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sorvete Napolitano Nestlé 1,5 Litros</t>
+          <t>Bisteca Suína Congelada Sadia 1 Kg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.99</v>
+        <v>23.39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Achocolatado em Pó Nescau 550g</t>
+          <t>Camarão Descascado Cozido 35/45 Maris 400 g</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.79</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alface Lisa Carrefour</t>
+          <t>Cebola Carrefour Aprox. 500g</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.2</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Couve Flor Cledson 300 g</t>
+          <t>Cenoura Único 1Kg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.99</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Banana Nanica Fresca Orgânica  600g</t>
+          <t>Contra Filé Swift Mais Aprox. 1,5Kg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.39</v>
+        <v>64.90000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Banana Prata Fischer Turma da Mônica 750g</t>
+          <t>Couve Flor Cledson 300 g</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.29</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Limão Siciliano Carrefour KG</t>
+          <t>Coxão Mole Fracionado à Vácuo Aprox. 1,3 Kg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.890000000000001</v>
+        <v>48.99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Maçã Gala Carrefour Aprox 600 g</t>
+          <t>Feijão Carioca Tipo 1 Kicaldo 1Kg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.89</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mamão Formosa Sabor &amp; Qualidade Aprox. 1,6 Kg</t>
+          <t>Filé de Merluza Congelado Planalto 500 g</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.99</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Manga Palmer Carrefour Aprox. 600g</t>
+          <t>Filé de Pescada sem Espinha Swift 500 g</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.79</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Melancia Premium Carrefour Aprox.  8Kg</t>
+          <t>Filé de Tilápia Fresco Carrefour 500 g</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.49</v>
+        <v>62.29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pera Willians Aprox. 500g</t>
+          <t>Lagarto Swift Mais Aprox. 1,5Kg</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.99</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Uva Escura sem Semente Carrefour 500g</t>
+          <t>Limão Siciliano Carrefour KG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.99</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bisteca Suína Congelada Sadia 1 Kg</t>
+          <t>Linguiça Toscana Swift 700 g</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23.39</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Contra Filé Swift Mais Aprox. 1,5Kg</t>
+          <t>Macarrão Instantâneo Nissin Sabor Galinha Caipira 85g</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.90000000000001</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Coxão Mole Fracionado à Vácuo Aprox. 1,3 Kg</t>
+          <t>Macarrão de Sêmola com Ovos Espaguete 8 Adria 500g</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>48.99</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Alcatra Bovina Carrefour Aproximadamente 400 g</t>
+          <t>Mamão Formosa Sabor &amp; Qualidade Aprox. 1,6 Kg</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lagarto Swift Mais Aprox. 1,5Kg</t>
+          <t>Manga Palmer Carrefour Aprox. 600g</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.59</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Acém em Pedaços Carrefour Aproximadamente 500 g</t>
+          <t>Maçã Gala Carrefour Aprox 600 g</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.008</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Camarão Descascado Cozido 35/45 Maris 400 g</t>
+          <t>Melancia Premium Carrefour Aprox.  8Kg</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>59.99</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Posta Cação Congelado Buona Pesca 500 g</t>
+          <t>Pera Willians Aprox. 500g</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.89</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Filé de Merluza Congelado Planalto 500 g</t>
+          <t>Posta Cação Congelado Buona Pesca 500 g</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>23.9</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Filé de Pescada sem Espinha Swift 500 g</t>
+          <t>Salsicha Hot Dog Resfriada Aurora Aproximadamente 500 g</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.59</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Filé de Tilápia Fresco Carrefour 500 g</t>
+          <t>Sorvete Napolitano Nestlé 1,5 Litros</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.29</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Salsicha Hot Dog Resfriada Aurora Aproximadamente 500 g</t>
+          <t>Tomate Carmem Carrefour Aprox. 500g</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.49</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Linguiça Toscana Swift 700 g</t>
+          <t>Uva Escura sem Semente Carrefour 500g</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14.9</v>
+        <v>7.99</v>
       </c>
     </row>
   </sheetData>

--- a/data/precos_carrefour_2025-09.xlsx
+++ b/data/precos_carrefour_2025-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Preço_20250915</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Preço_20250916</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +459,9 @@
       <c r="B2" t="n">
         <v>18.79</v>
       </c>
+      <c r="C2" t="n">
+        <v>18.79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -464,6 +472,9 @@
       <c r="B3" t="n">
         <v>0.008</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.008</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -474,6 +485,9 @@
       <c r="B4" t="n">
         <v>0.01</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -484,6 +498,9 @@
       <c r="B5" t="n">
         <v>1.2</v>
       </c>
+      <c r="C5" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -494,6 +511,9 @@
       <c r="B6" t="n">
         <v>15.29</v>
       </c>
+      <c r="C6" t="n">
+        <v>15.29</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,6 +524,9 @@
       <c r="B7" t="n">
         <v>4.69</v>
       </c>
+      <c r="C7" t="n">
+        <v>4.69</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -514,6 +537,9 @@
       <c r="B8" t="n">
         <v>7.39</v>
       </c>
+      <c r="C8" t="n">
+        <v>7.39</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -524,6 +550,9 @@
       <c r="B9" t="n">
         <v>5.29</v>
       </c>
+      <c r="C9" t="n">
+        <v>5.29</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -534,6 +563,9 @@
       <c r="B10" t="n">
         <v>1.99</v>
       </c>
+      <c r="C10" t="n">
+        <v>1.99</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -544,6 +576,9 @@
       <c r="B11" t="n">
         <v>23.39</v>
       </c>
+      <c r="C11" t="n">
+        <v>23.39</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -554,6 +589,9 @@
       <c r="B12" t="n">
         <v>59.99</v>
       </c>
+      <c r="C12" t="n">
+        <v>59.99</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -564,6 +602,9 @@
       <c r="B13" t="n">
         <v>4.99</v>
       </c>
+      <c r="C13" t="n">
+        <v>4.99</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -574,6 +615,9 @@
       <c r="B14" t="n">
         <v>3.19</v>
       </c>
+      <c r="C14" t="n">
+        <v>3.19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -584,6 +628,9 @@
       <c r="B15" t="n">
         <v>64.90000000000001</v>
       </c>
+      <c r="C15" t="n">
+        <v>64.90000000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -594,6 +641,9 @@
       <c r="B16" t="n">
         <v>9.99</v>
       </c>
+      <c r="C16" t="n">
+        <v>9.99</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -604,6 +654,9 @@
       <c r="B17" t="n">
         <v>48.99</v>
       </c>
+      <c r="C17" t="n">
+        <v>48.99</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -614,6 +667,9 @@
       <c r="B18" t="n">
         <v>5.99</v>
       </c>
+      <c r="C18" t="n">
+        <v>5.99</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -624,6 +680,9 @@
       <c r="B19" t="n">
         <v>23.9</v>
       </c>
+      <c r="C19" t="n">
+        <v>27.99</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -634,6 +693,9 @@
       <c r="B20" t="n">
         <v>24.59</v>
       </c>
+      <c r="C20" t="n">
+        <v>24.59</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -644,6 +706,9 @@
       <c r="B21" t="n">
         <v>62.29</v>
       </c>
+      <c r="C21" t="n">
+        <v>62.29</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -654,145 +719,201 @@
       <c r="B22" t="n">
         <v>43.59</v>
       </c>
+      <c r="C22" t="n">
+        <v>43.59</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Limão Siciliano Carrefour KG</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>9.890000000000001</v>
+          <t>Laranja Pera Carrefour Mercado 5 Kg</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>26.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Linguiça Toscana Swift 700 g</t>
+          <t>Limão Siciliano Carrefour KG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.9</v>
+        <v>9.890000000000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Nissin Sabor Galinha Caipira 85g</t>
+          <t>Linguiça Toscana Swift 700 g</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.69</v>
+        <v>14.9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Macarrão de Sêmola com Ovos Espaguete 8 Adria 500g</t>
+          <t>Macarrão Instantâneo Nissin Sabor Galinha Caipira 85g</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.09</v>
+        <v>1.69</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mamão Formosa Sabor &amp; Qualidade Aprox. 1,6 Kg</t>
+          <t>Macarrão de Sêmola com Ovos Espaguete 8 Adria 500g</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.99</v>
+        <v>4.09</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.09</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Manga Palmer Carrefour Aprox. 600g</t>
+          <t>Mamão Formosa Sabor &amp; Qualidade Aprox. 1,6 Kg</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.79</v>
+        <v>9.99</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Maçã Gala Carrefour Aprox 600 g</t>
+          <t>Manga Palmer Carrefour Aprox. 600g</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.89</v>
+        <v>4.79</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Melancia Premium Carrefour Aprox.  8Kg</t>
+          <t>Maçã Gala Carrefour Aprox 600 g</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.49</v>
+        <v>6.89</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pera Willians Aprox. 500g</t>
+          <t>Melancia Premium Carrefour Aprox.  8Kg</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14.99</v>
+        <v>3.49</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Posta Cação Congelado Buona Pesca 500 g</t>
+          <t>Pera Willians Aprox. 500g</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>22.89</v>
+        <v>14.99</v>
+      </c>
+      <c r="C32" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Salsicha Hot Dog Resfriada Aurora Aproximadamente 500 g</t>
+          <t>Posta Cação Congelado Buona Pesca 500 g</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16.49</v>
+        <v>22.89</v>
+      </c>
+      <c r="C33" t="n">
+        <v>22.89</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sorvete Napolitano Nestlé 1,5 Litros</t>
+          <t>Salsicha Hot Dog Resfriada Aurora Aproximadamente 500 g</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.99</v>
+        <v>16.49</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16.49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tomate Carmem Carrefour Aprox. 500g</t>
+          <t>Sorvete Napolitano Nestlé 1,5 Litros</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.008</v>
+        <v>29.99</v>
+      </c>
+      <c r="C35" t="n">
+        <v>29.99</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Tomate Carmem Carrefour Aprox. 500g</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Uva Escura sem Semente Carrefour 500g</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B37" t="n">
         <v>7.99</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6.99</v>
       </c>
     </row>
   </sheetData>

--- a/data/precos_carrefour_2025-09.xlsx
+++ b/data/precos_carrefour_2025-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,415 +505,1130 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Arroz Branco Longo-fino Tipo 1 Tio João 2Kg</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>15.29</v>
-      </c>
+          <t>Arroz Branco Longo-fino Tipo 1 Camil Todo Dia 1Kg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>15.29</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Açúcar Refinado União 1kg</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4.69</v>
-      </c>
+          <t>Arroz Branco Longo-fino Tipo 1 Meu Biju 1Kg</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>4.69</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Banana Nanica Fresca Orgânica  600g</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.39</v>
-      </c>
+          <t>Arroz Branco Longo-fino Tipo 1 Prato Fino 1 Kg</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>7.39</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Banana Prata Fischer Turma da Mônica 750g</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5.29</v>
-      </c>
+          <t>Arroz Branco Longo-fino Tipo 1 Tio João 1 Kg</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>5.29</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Batata Monalisa Carrefour Aprox. 600g</t>
+          <t>Arroz Branco Longo-fino Tipo 1 Tio João 2Kg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.99</v>
+        <v>15.29</v>
       </c>
       <c r="C10" t="n">
-        <v>1.99</v>
+        <v>15.29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bisteca Suína Congelada Sadia 1 Kg</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>23.39</v>
-      </c>
+          <t>Arroz Parboilizado Longo Fino Tipo 1 Carrefour 1Kg</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>23.39</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Camarão Descascado Cozido 35/45 Maris 400 g</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>59.99</v>
-      </c>
+          <t>Arroz Parboilizado Longo-fino Tipo 1 Prato Fino 1 Kg</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>59.99</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cebola Carrefour Aprox. 500g</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.99</v>
-      </c>
+          <t>Arroz Parboilizado Longo-fino Tipo 1 Tio João 1 Kg</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>4.99</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cenoura Único 1Kg</t>
+          <t>Açúcar Refinado União 1kg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.19</v>
+        <v>4.69</v>
       </c>
       <c r="C14" t="n">
-        <v>3.19</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Contra Filé Swift Mais Aprox. 1,5Kg</t>
+          <t>Banana Nanica Fresca Orgânica  600g</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.90000000000001</v>
+        <v>7.39</v>
       </c>
       <c r="C15" t="n">
-        <v>64.90000000000001</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Couve Flor Cledson 300 g</t>
+          <t>Banana Prata Fischer Turma da Mônica 750g</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.99</v>
+        <v>5.29</v>
       </c>
       <c r="C16" t="n">
-        <v>9.99</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Coxão Mole Fracionado à Vácuo Aprox. 1,3 Kg</t>
+          <t>Batata Monalisa Carrefour Aprox. 600g</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.99</v>
+        <v>1.99</v>
       </c>
       <c r="C17" t="n">
-        <v>48.99</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Feijão Carioca Tipo 1 Kicaldo 1Kg</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5.99</v>
-      </c>
+          <t>Biscoito Amanteigado Chocolate e Doce de Leite Carrefour 100 g</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>5.99</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Filé de Merluza Congelado Planalto 500 g</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>23.9</v>
-      </c>
+          <t>Biscoito Salgado Club Social original multipack 144g</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>27.99</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Filé de Pescada sem Espinha Swift 500 g</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>24.59</v>
-      </c>
+          <t>Biscoito Salgado Cream Cracker Integral Piraquê 215g</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>24.59</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Filé de Tilápia Fresco Carrefour 500 g</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>62.29</v>
-      </c>
+          <t>Biscoito com Chocolate Chocobiscuit Nestlé Ao Leite 78g</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>62.29</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lagarto Swift Mais Aprox. 1,5Kg</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>43.59</v>
-      </c>
+          <t>Biscoito de Polvilho Doce Carrefour 200g</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>43.59</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Laranja Pera Carrefour Mercado 5 Kg</t>
+          <t>Biscoito de Polvilho Salgado Carrefour 200g</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>26.09</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Limão Siciliano Carrefour KG</t>
+          <t>Bisteca Suína Congelada Sadia 1 Kg</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.890000000000001</v>
+        <v>23.39</v>
       </c>
       <c r="C24" t="n">
-        <v>9.890000000000001</v>
+        <v>23.39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Linguiça Toscana Swift 700 g</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>14.9</v>
-      </c>
+          <t>Café Starbucks House Blend Torrado e Moído Torra Média 250g</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>14.9</v>
+        <v>55.99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Nissin Sabor Galinha Caipira 85g</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1.69</v>
-      </c>
+          <t>Café Torrado e Moído 3 Corações Cerrado Mineiro 250 g</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>1.69</v>
+        <v>28.99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Macarrão de Sêmola com Ovos Espaguete 8 Adria 500g</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>4.09</v>
-      </c>
+          <t>Café Torrado e Moído Do Ponto Exportação Vácuo 500 g</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>4.09</v>
+        <v>34.29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mamão Formosa Sabor &amp; Qualidade Aprox. 1,6 Kg</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>9.99</v>
-      </c>
+          <t>Café Torrado e Moído a Vácuo Tradicional Pilão 500g</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>8.99</v>
+        <v>37.39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Manga Palmer Carrefour Aprox. 600g</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>4.79</v>
-      </c>
+          <t>Café Torrado e Moído à Vácuo Bom Jesus 500g</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>4.79</v>
+        <v>26.99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Maçã Gala Carrefour Aprox 600 g</t>
+          <t>Camarão Descascado Cozido 35/45 Maris 400 g</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.89</v>
+        <v>59.99</v>
       </c>
       <c r="C30" t="n">
-        <v>9.9</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Melancia Premium Carrefour Aprox.  8Kg</t>
+          <t>Cebola Carrefour Aprox. 500g</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.49</v>
+        <v>4.99</v>
       </c>
       <c r="C31" t="n">
-        <v>3.49</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pera Willians Aprox. 500g</t>
+          <t>Cenoura Único 1Kg</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14.99</v>
+        <v>3.19</v>
       </c>
       <c r="C32" t="n">
-        <v>14.99</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Posta Cação Congelado Buona Pesca 500 g</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>22.89</v>
-      </c>
+          <t>Cerveja Amstel Lager Lata Sleek 350ml</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>22.89</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Salsicha Hot Dog Resfriada Aurora Aproximadamente 500 g</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>16.49</v>
-      </c>
+          <t>Cerveja Baden Baden Golden Ale Garrafa 600ml</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>16.49</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sorvete Napolitano Nestlé 1,5 Litros</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>29.99</v>
-      </c>
+          <t>Cerveja Brahma Duplo Malte Puro Malte 350ml Lata</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>29.99</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tomate Carmem Carrefour Aprox. 500g</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.008</v>
-      </c>
+          <t>Cerveja Budweiser American Lager Lata 269 ml</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>0.008</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>Cerveja Heineken Garrafa 600ml</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cerveja Heineken Lata 269ml</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cerveja Original Pilsen 350ml Lata</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cerveja Pilsen Original Lata 269ml</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Contra Filé Swift Mais Aprox. 1,5Kg</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="C41" t="n">
+        <v>64.90000000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Costela Bovina Janela Congelada Aprox. 1,8Kg</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Couve Flor Cledson 300 g</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Coxão Mole Fracionado à Vácuo Aprox. 1,3 Kg</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>48.99</v>
+      </c>
+      <c r="C44" t="n">
+        <v>48.99</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Feijão Carioca Tipo 1 Kicaldo 1Kg</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Filé de Merluza Congelado Planalto 500 g</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="C46" t="n">
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Filé de Pescada sem Espinha Swift 500 g</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="C47" t="n">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Filé de Tilápia Fresco Carrefour 500 g</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>62.29</v>
+      </c>
+      <c r="C48" t="n">
+        <v>62.29</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Frango Inteiro Swift Aprox. 2,5kg</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Lagarto Swift Mais Aprox. 1,5Kg</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>43.59</v>
+      </c>
+      <c r="C50" t="n">
+        <v>43.59</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Laranja Pera Carrefour Mercado 5 Kg</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>26.09</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Leite Desnatado Piracanjuba 1 Litro</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Leite Desnatado UHT Molico 1 L</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Leite Desnatado UHT Tipo A Leitíssimo 1 Litro</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Leite Desnatado em Pó Instantâneo Italac 280g</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Leite Semidesnatado Líquido Parmalat 1 Litro</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Leite Semidesnatado Piracanjuba 1 Litro</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Leite Semidesnatado UHT Goiasminas Italac 1 Litro</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="n">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Leite UHT Integral Carrefour Classic 1L</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Leite em Pó Integral Italac 200g</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Leite em Pó Molico Desnatado Lata 280g</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Leite em Pó Ninho Adulto Lata 350g</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="n">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Leite sem Lactose Integral UHT Italac 1 Litro</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Limão Siciliano Carrefour KG</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="C64" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Linguiça Toscana Sadia 700g</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>19.89</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Linguiça Toscana Swift 700 g</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C66" t="n">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Linguiça Toscana Swift 700 g</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C67" t="n">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Lingüiça Toscana Grossa Auora Aprox. 700g</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>29.59</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Macarrão Instantâneo Nissin Sabor Galinha Caipira 85g</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Macarrão de Sêmola com Ovos Espaguete 8 Adria 500g</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Mamão Formosa Sabor &amp; Qualidade Aprox. 1,6 Kg</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="C71" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Manga Palmer Carrefour Aprox. 600g</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Maçã Gala Carrefour Aprox 600 g</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Melancia Premium Carrefour Aprox.  8Kg</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ovo Branco Grande Ac Planalto Ovos Bandeja com 20</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ovo Caipira Grande Orgânicos Raiar com 20 Unidades</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="n">
+        <v>32.89</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ovo Vermelho Grande Mantiqueira Happy Eggs com 20 Unidades</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ovos Brancos Carrefour 20 Unidades</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="n">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Ovos Vermelhos Carrefour 20 Unidades</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="n">
+        <v>17.99</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Pera Willians Aprox. 500g</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="C80" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Posta Cação Congelado Buona Pesca 500 g</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="C81" t="n">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Pão Francês Carrefour Aprox 110g</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Queijo Fatiado Sabor Mussarela Polenghi 144g</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Queijo Mussarela Fatiado Carrefour Aproximadamente 200 g</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Queijo Mussarela Fatiado Mandaká com 150 g</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Queijo Mussarela Fatiado Président 150g</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Queijo Mussarela Importado Fatiado Aprox. 200g</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Queijo Prato Fatiado President 150g</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="n">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Queijo Prato Fatiado Tirolez 150g</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>19.19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Refrigerante Coca-Cola Garrafa 2 L</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="n">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Refrigerante Fanta Laranja 2L</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Refrigerante Guaraná Antarctica Garrafa 2L</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="n">
+        <v>9.49</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Salsicha Hot Dog Resfriada Aurora Aproximadamente 500 g</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="C93" t="n">
+        <v>16.49</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Sorvete Napolitano Nestlé 1,5 Litros</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="C94" t="n">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Tomate Carmem Carrefour Aprox. 500g</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>Uva Escura sem Semente Carrefour 500g</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B96" t="n">
         <v>7.99</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C96" t="n">
         <v>6.99</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Água Mineral Crystal Sem Gás 1,5L</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Água Mineral sem Gás Frescca 1,5 Litros</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Água Mineral sem Gás Minalba 1,5 Litros</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Água Mineral sem Gás Nestlé Pureza Vital 1,5 Litros</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Óleo de Soja Soya 900ml</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="n">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Óleo de Soja Vitaliv Garrafa 900 ml</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="n">
+        <v>7.59</v>
       </c>
     </row>
   </sheetData>

--- a/data/precos_carrefour_2025-09.xlsx
+++ b/data/precos_carrefour_2025-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Preço_20250916</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Preço_20250918</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,6 +467,9 @@
       <c r="C2" t="n">
         <v>18.79</v>
       </c>
+      <c r="D2" t="n">
+        <v>18.79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,6 +483,9 @@
       <c r="C3" t="n">
         <v>0.008</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.008</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +499,9 @@
       <c r="C4" t="n">
         <v>0.01</v>
       </c>
+      <c r="D4" t="n">
+        <v>45.9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -500,6 +514,9 @@
       </c>
       <c r="C5" t="n">
         <v>1.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.99</v>
       </c>
     </row>
     <row r="6">
@@ -512,6 +529,9 @@
       <c r="C6" t="n">
         <v>5.19</v>
       </c>
+      <c r="D6" t="n">
+        <v>5.19</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -523,6 +543,9 @@
       <c r="C7" t="n">
         <v>3.99</v>
       </c>
+      <c r="D7" t="n">
+        <v>4.19</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -534,6 +557,9 @@
       <c r="C8" t="n">
         <v>5.79</v>
       </c>
+      <c r="D8" t="n">
+        <v>5.79</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -545,6 +571,9 @@
       <c r="C9" t="n">
         <v>6.5</v>
       </c>
+      <c r="D9" t="n">
+        <v>6.29</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -556,6 +585,9 @@
         <v>15.29</v>
       </c>
       <c r="C10" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="D10" t="n">
         <v>15.29</v>
       </c>
     </row>
@@ -569,6 +601,9 @@
       <c r="C11" t="n">
         <v>4.59</v>
       </c>
+      <c r="D11" t="n">
+        <v>4.59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -580,6 +615,9 @@
       <c r="C12" t="n">
         <v>5.99</v>
       </c>
+      <c r="D12" t="n">
+        <v>5.99</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -591,6 +629,9 @@
       <c r="C13" t="n">
         <v>7.19</v>
       </c>
+      <c r="D13" t="n">
+        <v>7.19</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -604,6 +645,9 @@
       <c r="C14" t="n">
         <v>4.69</v>
       </c>
+      <c r="D14" t="n">
+        <v>4.89</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -617,6 +661,9 @@
       <c r="C15" t="n">
         <v>7.39</v>
       </c>
+      <c r="D15" t="n">
+        <v>7.39</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -630,6 +677,9 @@
       <c r="C16" t="n">
         <v>5.29</v>
       </c>
+      <c r="D16" t="n">
+        <v>5.29</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -641,6 +691,9 @@
         <v>1.99</v>
       </c>
       <c r="C17" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D17" t="n">
         <v>1.99</v>
       </c>
     </row>
@@ -654,6 +707,9 @@
       <c r="C18" t="n">
         <v>5.69</v>
       </c>
+      <c r="D18" t="n">
+        <v>5.69</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -665,6 +721,9 @@
       <c r="C19" t="n">
         <v>5.89</v>
       </c>
+      <c r="D19" t="n">
+        <v>5.89</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -676,6 +735,9 @@
       <c r="C20" t="n">
         <v>6.59</v>
       </c>
+      <c r="D20" t="n">
+        <v>6.89</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -687,6 +749,9 @@
       <c r="C21" t="n">
         <v>8.289999999999999</v>
       </c>
+      <c r="D21" t="n">
+        <v>8.390000000000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -698,6 +763,9 @@
       <c r="C22" t="n">
         <v>7.99</v>
       </c>
+      <c r="D22" t="n">
+        <v>7.99</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -709,6 +777,9 @@
       <c r="C23" t="n">
         <v>7.99</v>
       </c>
+      <c r="D23" t="n">
+        <v>7.99</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -720,6 +791,9 @@
         <v>23.39</v>
       </c>
       <c r="C24" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="D24" t="n">
         <v>23.39</v>
       </c>
     </row>
@@ -733,6 +807,9 @@
       <c r="C25" t="n">
         <v>55.99</v>
       </c>
+      <c r="D25" t="n">
+        <v>47.59</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -744,6 +821,9 @@
       <c r="C26" t="n">
         <v>28.99</v>
       </c>
+      <c r="D26" t="n">
+        <v>24.59</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -755,6 +835,9 @@
       <c r="C27" t="n">
         <v>34.29</v>
       </c>
+      <c r="D27" t="n">
+        <v>34.29</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -766,447 +849,556 @@
       <c r="C28" t="n">
         <v>37.39</v>
       </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Café Torrado e Moído à Vácuo Bom Jesus 500g</t>
+          <t>Café Torrado e Moído a Vácuo Tradicional Pilão Pacote 500g</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="n">
-        <v>26.99</v>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="n">
+        <v>37.39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Camarão Descascado Cozido 35/45 Maris 400 g</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>59.99</v>
-      </c>
+          <t>Café Torrado e Moído à Vácuo Bom Jesus 500g</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>59.99</v>
+        <v>26.99</v>
+      </c>
+      <c r="D30" t="n">
+        <v>27.59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cebola Carrefour Aprox. 500g</t>
+          <t>Camarão Descascado Cozido 35/45 Maris 400 g</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.99</v>
+        <v>59.99</v>
       </c>
       <c r="C31" t="n">
-        <v>4.99</v>
+        <v>59.99</v>
+      </c>
+      <c r="D31" t="n">
+        <v>59.99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cenoura Único 1Kg</t>
+          <t>Cebola Carrefour Aprox. 500g</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.19</v>
+        <v>4.99</v>
       </c>
       <c r="C32" t="n">
-        <v>3.19</v>
+        <v>4.99</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cerveja Amstel Lager Lata Sleek 350ml</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
+          <t>Cenoura Único 1Kg</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3.19</v>
+      </c>
       <c r="C33" t="n">
-        <v>4.09</v>
+        <v>3.19</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cerveja Baden Baden Golden Ale Garrafa 600ml</t>
+          <t>Cerveja Amstel Lager Lata Sleek 350ml</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>14.99</v>
+        <v>4.09</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cerveja Brahma Duplo Malte Puro Malte 350ml Lata</t>
+          <t>Cerveja Baden Baden Golden Ale Garrafa 600ml</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>3.49</v>
+        <v>14.99</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cerveja Budweiser American Lager Lata 269 ml</t>
+          <t>Cerveja Brahma Duplo Malte Puro Malte 350ml Lata</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>2.89</v>
+        <v>3.49</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cerveja Heineken Garrafa 600ml</t>
+          <t>Cerveja Budweiser American Lager Lata 269 ml</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>13.49</v>
+        <v>2.89</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cerveja Heineken Lata 269ml</t>
+          <t>Cerveja Heineken Garrafa 600ml</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>4.79</v>
+        <v>13.49</v>
+      </c>
+      <c r="D38" t="n">
+        <v>13.49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Cerveja Original Pilsen 350ml Lata</t>
+          <t>Cerveja Heineken Lata 269ml</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>4.69</v>
+        <v>4.79</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cerveja Pilsen Original Lata 269ml</t>
+          <t>Cerveja Original Pilsen 350ml Lata</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>3.69</v>
+        <v>4.69</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4.69</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Contra Filé Swift Mais Aprox. 1,5Kg</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>64.90000000000001</v>
-      </c>
+          <t>Cerveja Pilsen Original Lata 269ml</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>64.90000000000001</v>
+        <v>3.69</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.69</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Costela Bovina Janela Congelada Aprox. 1,8Kg</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>Contra Filé Swift Mais Aprox. 1,5Kg</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>64.90000000000001</v>
+      </c>
       <c r="C42" t="n">
-        <v>39.99</v>
+        <v>64.90000000000001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>64.90000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Couve Flor Cledson 300 g</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>Costela Bovina Janela Congelada Aprox. 1,8Kg</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="D43" t="n">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Coxão Mole Fracionado à Vácuo Aprox. 1,3 Kg</t>
+          <t>Couve Flor Cledson 300 g</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48.99</v>
-      </c>
-      <c r="C44" t="n">
-        <v>48.99</v>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Feijão Carioca Tipo 1 Kicaldo 1Kg</t>
+          <t>Coxão Mole Fracionado à Vácuo Aprox. 1,3 Kg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5.99</v>
+        <v>48.99</v>
       </c>
       <c r="C45" t="n">
-        <v>5.99</v>
+        <v>48.99</v>
+      </c>
+      <c r="D45" t="n">
+        <v>48.99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Filé de Merluza Congelado Planalto 500 g</t>
+          <t>Feijão Carioca Tipo 1 Kicaldo 1Kg</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23.9</v>
+        <v>5.99</v>
       </c>
       <c r="C46" t="n">
-        <v>27.99</v>
+        <v>5.99</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5.99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Filé de Pescada sem Espinha Swift 500 g</t>
+          <t>Filé de Merluza Congelado Planalto 500 g</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>24.59</v>
+        <v>23.9</v>
       </c>
       <c r="C47" t="n">
-        <v>24.59</v>
+        <v>27.99</v>
+      </c>
+      <c r="D47" t="n">
+        <v>27.99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Filé de Tilápia Fresco Carrefour 500 g</t>
+          <t>Filé de Pescada sem Espinha Swift 500 g</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>62.29</v>
+        <v>24.59</v>
       </c>
       <c r="C48" t="n">
-        <v>62.29</v>
+        <v>24.59</v>
+      </c>
+      <c r="D48" t="n">
+        <v>24.59</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Frango Inteiro Swift Aprox. 2,5kg</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>Filé de Tilápia Fresco Carrefour 500 g</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>62.29</v>
+      </c>
       <c r="C49" t="n">
-        <v>11.9</v>
+        <v>62.29</v>
+      </c>
+      <c r="D49" t="n">
+        <v>62.29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lagarto Swift Mais Aprox. 1,5Kg</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>43.59</v>
-      </c>
+          <t>Frango Inteiro Swift Aprox. 2,5kg</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>43.59</v>
+        <v>11.9</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11.9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Laranja Pera Carrefour Mercado 5 Kg</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
+          <t>Lagarto Swift Mais Aprox. 1,5Kg</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>43.59</v>
+      </c>
       <c r="C51" t="n">
-        <v>26.09</v>
+        <v>43.59</v>
+      </c>
+      <c r="D51" t="n">
+        <v>43.59</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Leite Desnatado Piracanjuba 1 Litro</t>
+          <t>Laranja Pera Carrefour Mercado 5 Kg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>5.19</v>
+        <v>26.09</v>
+      </c>
+      <c r="D52" t="n">
+        <v>26.09</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Leite Desnatado UHT Molico 1 L</t>
+          <t>Leite Desnatado Piracanjuba 1 Litro</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>6.09</v>
+        <v>5.19</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Leite Desnatado UHT Tipo A Leitíssimo 1 Litro</t>
+          <t>Leite Desnatado UHT Molico 1 L</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>9.890000000000001</v>
+        <v>6.09</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6.09</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Leite Desnatado em Pó Instantâneo Italac 280g</t>
+          <t>Leite Desnatado UHT Tipo A Leitíssimo 1 Litro</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>11.29</v>
+        <v>9.890000000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Leite Semidesnatado Líquido Parmalat 1 Litro</t>
+          <t>Leite Desnatado em Pó Instantâneo Italac 280g</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>5.39</v>
+        <v>11.29</v>
+      </c>
+      <c r="D56" t="n">
+        <v>11.29</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Leite Semidesnatado Piracanjuba 1 Litro</t>
+          <t>Leite Semidesnatado Líquido Parmalat 1 Litro</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>3.29</v>
+        <v>5.39</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5.39</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Leite Semidesnatado UHT Goiasminas Italac 1 Litro</t>
+          <t>Leite Semidesnatado Piracanjuba 1 Litro</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D58" t="n">
         <v>5.19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Leite UHT Integral Carrefour Classic 1L</t>
+          <t>Leite Semidesnatado UHT Goiasminas Italac 1 Litro</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>4.69</v>
+        <v>5.19</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.49</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Leite em Pó Integral Italac 200g</t>
+          <t>Leite UHT Integral Carrefour Classic 1L</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>7.99</v>
+        <v>4.69</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.69</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Leite em Pó Molico Desnatado Lata 280g</t>
+          <t>Leite em Pó Integral Italac 200g</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>19.99</v>
+        <v>7.99</v>
+      </c>
+      <c r="D61" t="n">
+        <v>7.99</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Leite em Pó Ninho Adulto Lata 350g</t>
+          <t>Leite em Pó Molico Desnatado Lata 280g</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>23.99</v>
+        <v>19.99</v>
+      </c>
+      <c r="D62" t="n">
+        <v>19.99</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Leite sem Lactose Integral UHT Italac 1 Litro</t>
+          <t>Leite em Pó Ninho Adulto Lata 350g</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>5.89</v>
+        <v>23.99</v>
+      </c>
+      <c r="D63" t="n">
+        <v>23.99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Limão Siciliano Carrefour KG</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>9.890000000000001</v>
-      </c>
+          <t>Leite sem Lactose Integral UHT Italac 1 Litro</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>9.890000000000001</v>
+        <v>5.89</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5.89</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Linguiça Toscana Sadia 700g</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>Limão Siciliano Carrefour KG</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9.890000000000001</v>
+      </c>
       <c r="C65" t="n">
-        <v>19.89</v>
+        <v>9.890000000000001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Linguiça Toscana Swift 700 g</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>14.9</v>
-      </c>
+          <t>Linguiça Toscana Sadia 700g</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>14.9</v>
+        <v>19.89</v>
+      </c>
+      <c r="D66" t="n">
+        <v>19.89</v>
       </c>
     </row>
     <row r="67">
@@ -1221,414 +1413,580 @@
       <c r="C67" t="n">
         <v>14.9</v>
       </c>
+      <c r="D67" t="n">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Lingüiça Toscana Grossa Auora Aprox. 700g</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
+          <t>Linguiça Toscana Swift 700 g</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>14.9</v>
+      </c>
       <c r="C68" t="n">
-        <v>29.59</v>
+        <v>14.9</v>
+      </c>
+      <c r="D68" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Nissin Sabor Galinha Caipira 85g</t>
+          <t>Linguiça Toscana Swift 700 g</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.69</v>
+        <v>14.9</v>
       </c>
       <c r="C69" t="n">
-        <v>1.69</v>
+        <v>14.9</v>
+      </c>
+      <c r="D69" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Macarrão de Sêmola com Ovos Espaguete 8 Adria 500g</t>
+          <t>Linguiça Toscana Swift 700 g</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4.09</v>
+        <v>14.9</v>
       </c>
       <c r="C70" t="n">
-        <v>4.09</v>
+        <v>14.9</v>
+      </c>
+      <c r="D70" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Mamão Formosa Sabor &amp; Qualidade Aprox. 1,6 Kg</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>9.99</v>
-      </c>
+          <t>Lingüiça Toscana Grossa Auora Aprox. 700g</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>9.99</v>
+        <v>29.59</v>
+      </c>
+      <c r="D71" t="n">
+        <v>29.59</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Manga Palmer Carrefour Aprox. 600g</t>
+          <t>Macarrão Instantâneo Nissin Sabor Galinha Caipira 85g</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4.79</v>
+        <v>1.69</v>
       </c>
       <c r="C72" t="n">
-        <v>4.79</v>
+        <v>1.69</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.09</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Maçã Gala Carrefour Aprox 600 g</t>
+          <t>Macarrão de Sêmola com Ovos Espaguete 8 Adria 500g</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6.89</v>
+        <v>4.09</v>
       </c>
       <c r="C73" t="n">
-        <v>6.89</v>
+        <v>4.09</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4.09</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Melancia Premium Carrefour Aprox.  8Kg</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="C74" t="n">
-        <v>3.49</v>
+          <t>Mamão Formosa Garantia de Origem Aprox. 1,6 Kg</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>8.99</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ovo Branco Grande Ac Planalto Ovos Bandeja com 20</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
+          <t>Mamão Formosa Sabor &amp; Qualidade Aprox. 1,6 Kg</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9.99</v>
+      </c>
       <c r="C75" t="n">
-        <v>17.99</v>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ovo Caipira Grande Orgânicos Raiar com 20 Unidades</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
+          <t>Manga Palmer Carrefour Aprox. 600g</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4.79</v>
+      </c>
       <c r="C76" t="n">
-        <v>32.89</v>
+        <v>4.79</v>
+      </c>
+      <c r="D76" t="n">
+        <v>9.99</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ovo Vermelho Grande Mantiqueira Happy Eggs com 20 Unidades</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr"/>
+          <t>Maçã Gala Carrefour Aprox 600 g</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>6.89</v>
+      </c>
       <c r="C77" t="n">
-        <v>19.99</v>
+        <v>6.89</v>
+      </c>
+      <c r="D77" t="n">
+        <v>14.59</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ovos Brancos Carrefour 20 Unidades</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr"/>
+          <t>Melancia Premium Carrefour Aprox.  8Kg</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3.49</v>
+      </c>
       <c r="C78" t="n">
-        <v>10.1</v>
+        <v>3.49</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.99</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Carrefour 20 Unidades</t>
+          <t>Ovo Branco Grande Ac Planalto Ovos Bandeja com 20</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
         <v>17.99</v>
       </c>
+      <c r="D79" t="n">
+        <v>16.99</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Pera Willians Aprox. 500g</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>14.99</v>
-      </c>
+          <t>Ovo Caipira Grande Orgânicos Raiar com 20 Unidades</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>14.99</v>
+        <v>32.89</v>
+      </c>
+      <c r="D80" t="n">
+        <v>32.89</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Posta Cação Congelado Buona Pesca 500 g</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>22.89</v>
-      </c>
+          <t>Ovo Vermelho Grande Mantiqueira Happy Eggs com 20 Unidades</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>22.89</v>
+        <v>19.99</v>
+      </c>
+      <c r="D81" t="n">
+        <v>19.99</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Pão Francês Carrefour Aprox 110g</t>
+          <t>Ovos Brancos Carrefour 20 Unidades</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>0.036</v>
+        <v>10.1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10.1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Queijo Fatiado Sabor Mussarela Polenghi 144g</t>
+          <t>Ovos Vermelhos Carrefour 20 Unidades</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>18.29</v>
+        <v>17.99</v>
+      </c>
+      <c r="D83" t="n">
+        <v>15.99</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Queijo Mussarela Fatiado Carrefour Aproximadamente 200 g</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
+          <t>Pera Willians Aprox. 500g</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>14.99</v>
+      </c>
       <c r="C84" t="n">
-        <v>0.02</v>
+        <v>14.99</v>
+      </c>
+      <c r="D84" t="n">
+        <v>14.99</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Queijo Mussarela Fatiado Mandaká com 150 g</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
+          <t>Posta Cação Congelado Buona Pesca 500 g</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>22.89</v>
+      </c>
       <c r="C85" t="n">
-        <v>8.99</v>
+        <v>22.89</v>
+      </c>
+      <c r="D85" t="n">
+        <v>22.89</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Queijo Mussarela Fatiado Président 150g</t>
+          <t>Pão Francês Carrefour Aprox 110g</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>10.69</v>
+        <v>0.036</v>
+      </c>
+      <c r="D86" t="n">
+        <v>21.9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Queijo Mussarela Importado Fatiado Aprox. 200g</t>
+          <t>Queijo Fatiado Sabor Mussarela Polenghi 144g</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>0.02</v>
+        <v>18.29</v>
+      </c>
+      <c r="D87" t="n">
+        <v>18.29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Queijo Prato Fatiado President 150g</t>
+          <t>Queijo Mussarela Fatiado Carrefour Aproximadamente 200 g</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>10.09</v>
+        <v>0.02</v>
+      </c>
+      <c r="D88" t="n">
+        <v>47.69</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Queijo Prato Fatiado Tirolez 150g</t>
+          <t>Queijo Mussarela Fatiado Mandaká com 150 g</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>19.19</v>
+        <v>8.99</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8.99</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Refrigerante Coca-Cola Garrafa 2 L</t>
+          <t>Queijo Mussarela Fatiado Président 150g</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>11.49</v>
+        <v>10.69</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10.69</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Refrigerante Fanta Laranja 2L</t>
+          <t>Queijo Mussarela Importado Fatiado Aprox. 200g</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>9.69</v>
+        <v>0.02</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Refrigerante Guaraná Antarctica Garrafa 2L</t>
+          <t>Queijo Prato Fatiado President 150g</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>9.49</v>
+        <v>10.09</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10.09</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Salsicha Hot Dog Resfriada Aurora Aproximadamente 500 g</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>16.49</v>
-      </c>
+          <t>Queijo Prato Fatiado Tirolez 150g</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>16.49</v>
+        <v>19.19</v>
+      </c>
+      <c r="D93" t="n">
+        <v>19.19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sorvete Napolitano Nestlé 1,5 Litros</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>29.99</v>
-      </c>
+          <t>Refrigerante Coca-Cola Garrafa 2 L</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>29.99</v>
+        <v>11.49</v>
+      </c>
+      <c r="D94" t="n">
+        <v>11.49</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Tomate Carmem Carrefour Aprox. 500g</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.008</v>
-      </c>
+          <t>Refrigerante Fanta Laranja 2L</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>0.008</v>
+        <v>9.69</v>
+      </c>
+      <c r="D95" t="n">
+        <v>9.69</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Uva Escura sem Semente Carrefour 500g</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>7.99</v>
-      </c>
+          <t>Refrigerante Guaraná Antarctica Garrafa 2L</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>6.99</v>
+        <v>9.49</v>
+      </c>
+      <c r="D96" t="n">
+        <v>9.49</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Água Mineral Crystal Sem Gás 1,5L</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
+          <t>Salsicha Hot Dog Resfriada Aurora Aproximadamente 500 g</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>16.49</v>
+      </c>
       <c r="C97" t="n">
-        <v>3.39</v>
+        <v>16.49</v>
+      </c>
+      <c r="D97" t="n">
+        <v>16.49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Água Mineral sem Gás Frescca 1,5 Litros</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
+          <t>Sorvete Napolitano Nestlé 1,5 Litros</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>29.99</v>
+      </c>
       <c r="C98" t="n">
-        <v>2.59</v>
+        <v>29.99</v>
+      </c>
+      <c r="D98" t="n">
+        <v>29.99</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Água Mineral sem Gás Minalba 1,5 Litros</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
+          <t>Tomate Carmem Carrefour Aprox. 500g</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.008</v>
+      </c>
       <c r="C99" t="n">
-        <v>3.59</v>
+        <v>0.008</v>
+      </c>
+      <c r="D99" t="n">
+        <v>9.99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Água Mineral sem Gás Nestlé Pureza Vital 1,5 Litros</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>Uva Escura sem Semente Carrefour 500g</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>7.99</v>
+      </c>
       <c r="C100" t="n">
-        <v>3.29</v>
+        <v>6.99</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6.99</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Óleo de Soja Soya 900ml</t>
+          <t>Água Mineral Crystal Sem Gás 1,5L</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>7.59</v>
+        <v>3.39</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.39</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Óleo de Soja Vitaliv Garrafa 900 ml</t>
+          <t>Água Mineral sem Gás Frescca 1,5 Litros</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Água Mineral sem Gás Minalba 1,5 Litros</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Água Mineral sem Gás Nestlé Pureza Vital 1,5 Litros</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Óleo de Soja Soya 900ml</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="n">
         <v>7.59</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Óleo de Soja Vitaliv Garrafa 900 ml</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.89</v>
       </c>
     </row>
   </sheetData>

--- a/data/precos_carrefour_2025-09.xlsx
+++ b/data/precos_carrefour_2025-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,183 +1468,191 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Lingüiça Toscana Grossa Auora Aprox. 700g</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>Linguiça Toscana Swift 700 g</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>14.9</v>
+      </c>
       <c r="C71" t="n">
-        <v>29.59</v>
+        <v>14.9</v>
       </c>
       <c r="D71" t="n">
-        <v>29.59</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Macarrão Instantâneo Nissin Sabor Galinha Caipira 85g</t>
+          <t>Linguiça Toscana Swift 700 g</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1.69</v>
+        <v>14.9</v>
       </c>
       <c r="C72" t="n">
-        <v>1.69</v>
+        <v>14.9</v>
       </c>
       <c r="D72" t="n">
-        <v>3.09</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Macarrão de Sêmola com Ovos Espaguete 8 Adria 500g</t>
+          <t>Linguiça Toscana Swift 700 g</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4.09</v>
+        <v>14.9</v>
       </c>
       <c r="C73" t="n">
-        <v>4.09</v>
+        <v>14.9</v>
       </c>
       <c r="D73" t="n">
-        <v>4.09</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mamão Formosa Garantia de Origem Aprox. 1,6 Kg</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
+          <t>Linguiça Toscana Swift 700 g</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C74" t="n">
+        <v>14.9</v>
+      </c>
       <c r="D74" t="n">
-        <v>8.99</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mamão Formosa Sabor &amp; Qualidade Aprox. 1,6 Kg</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>9.99</v>
-      </c>
+          <t>Lingüiça Toscana Grossa Auora Aprox. 700g</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>29.59</v>
+      </c>
+      <c r="D75" t="n">
+        <v>29.59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Manga Palmer Carrefour Aprox. 600g</t>
+          <t>Macarrão Instantâneo Nissin Sabor Galinha Caipira 85g</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4.79</v>
+        <v>1.69</v>
       </c>
       <c r="C76" t="n">
-        <v>4.79</v>
+        <v>1.69</v>
       </c>
       <c r="D76" t="n">
-        <v>9.99</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Maçã Gala Carrefour Aprox 600 g</t>
+          <t>Macarrão de Sêmola com Ovos Espaguete 8 Adria 500g</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>6.89</v>
+        <v>4.09</v>
       </c>
       <c r="C77" t="n">
-        <v>6.89</v>
+        <v>4.09</v>
       </c>
       <c r="D77" t="n">
-        <v>14.59</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Melancia Premium Carrefour Aprox.  8Kg</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="C78" t="n">
-        <v>3.49</v>
-      </c>
+          <t>Mamão Formosa Garantia de Origem Aprox. 1,6 Kg</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>2.99</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ovo Branco Grande Ac Planalto Ovos Bandeja com 20</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
+          <t>Mamão Formosa Sabor &amp; Qualidade Aprox. 1,6 Kg</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>9.99</v>
+      </c>
       <c r="C79" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="D79" t="n">
-        <v>16.99</v>
-      </c>
+        <v>9.99</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ovo Caipira Grande Orgânicos Raiar com 20 Unidades</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
+          <t>Manga Palmer Carrefour Aprox. 600g</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4.79</v>
+      </c>
       <c r="C80" t="n">
-        <v>32.89</v>
+        <v>4.79</v>
       </c>
       <c r="D80" t="n">
-        <v>32.89</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ovo Vermelho Grande Mantiqueira Happy Eggs com 20 Unidades</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
+          <t>Maçã Gala Carrefour Aprox 600 g</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6.89</v>
+      </c>
       <c r="C81" t="n">
-        <v>19.99</v>
+        <v>6.89</v>
       </c>
       <c r="D81" t="n">
-        <v>19.99</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ovos Brancos Carrefour 20 Unidades</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
+          <t>Melancia Premium Carrefour Aprox.  8Kg</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>3.49</v>
+      </c>
       <c r="C82" t="n">
-        <v>10.1</v>
+        <v>3.49</v>
       </c>
       <c r="D82" t="n">
-        <v>10.1</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ovos Vermelhos Carrefour 20 Unidades</t>
+          <t>Ovo Branco Grande Ac Planalto Ovos Bandeja com 20</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -1652,340 +1660,396 @@
         <v>17.99</v>
       </c>
       <c r="D83" t="n">
-        <v>15.99</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Pera Willians Aprox. 500g</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>14.99</v>
-      </c>
+          <t>Ovo Caipira Grande Orgânicos Raiar com 20 Unidades</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>14.99</v>
+        <v>32.89</v>
       </c>
       <c r="D84" t="n">
-        <v>14.99</v>
+        <v>32.89</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Posta Cação Congelado Buona Pesca 500 g</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>22.89</v>
-      </c>
+          <t>Ovo Vermelho Grande Mantiqueira Happy Eggs com 20 Unidades</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>22.89</v>
+        <v>19.99</v>
       </c>
       <c r="D85" t="n">
-        <v>22.89</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Pão Francês Carrefour Aprox 110g</t>
+          <t>Ovos Brancos Carrefour 20 Unidades</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>0.036</v>
+        <v>10.1</v>
       </c>
       <c r="D86" t="n">
-        <v>21.9</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Queijo Fatiado Sabor Mussarela Polenghi 144g</t>
+          <t>Ovos Vermelhos Carrefour 20 Unidades</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>18.29</v>
+        <v>17.99</v>
       </c>
       <c r="D87" t="n">
-        <v>18.29</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Queijo Mussarela Fatiado Carrefour Aproximadamente 200 g</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
+          <t>Pera Willians Aprox. 500g</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>14.99</v>
+      </c>
       <c r="C88" t="n">
-        <v>0.02</v>
+        <v>14.99</v>
       </c>
       <c r="D88" t="n">
-        <v>47.69</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Queijo Mussarela Fatiado Mandaká com 150 g</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
+          <t>Posta Cação Congelado Buona Pesca 500 g</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>22.89</v>
+      </c>
       <c r="C89" t="n">
-        <v>8.99</v>
+        <v>22.89</v>
       </c>
       <c r="D89" t="n">
-        <v>8.99</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Queijo Mussarela Fatiado Président 150g</t>
+          <t>Pão Francês Carrefour Aprox 110g</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>10.69</v>
+        <v>0.036</v>
       </c>
       <c r="D90" t="n">
-        <v>10.69</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Queijo Mussarela Importado Fatiado Aprox. 200g</t>
+          <t>Queijo Fatiado Sabor Mussarela Polenghi 144g</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>0.02</v>
+        <v>18.29</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02</v>
+        <v>18.29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Queijo Prato Fatiado President 150g</t>
+          <t>Queijo Mussarela Fatiado Carrefour Aproximadamente 200 g</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>10.09</v>
+        <v>0.02</v>
       </c>
       <c r="D92" t="n">
-        <v>10.09</v>
+        <v>47.69</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Queijo Prato Fatiado Tirolez 150g</t>
+          <t>Queijo Mussarela Fatiado Mandaká com 150 g</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>19.19</v>
+        <v>8.99</v>
       </c>
       <c r="D93" t="n">
-        <v>19.19</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Refrigerante Coca-Cola Garrafa 2 L</t>
+          <t>Queijo Mussarela Fatiado Président 150g</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>11.49</v>
+        <v>10.69</v>
       </c>
       <c r="D94" t="n">
-        <v>11.49</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Refrigerante Fanta Laranja 2L</t>
+          <t>Queijo Mussarela Importado Fatiado Aprox. 200g</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>9.69</v>
+        <v>0.02</v>
       </c>
       <c r="D95" t="n">
-        <v>9.69</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Refrigerante Guaraná Antarctica Garrafa 2L</t>
+          <t>Queijo Prato Fatiado President 150g</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>9.49</v>
+        <v>10.09</v>
       </c>
       <c r="D96" t="n">
-        <v>9.49</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Salsicha Hot Dog Resfriada Aurora Aproximadamente 500 g</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>16.49</v>
-      </c>
+          <t>Queijo Prato Fatiado Tirolez 150g</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>16.49</v>
+        <v>19.19</v>
       </c>
       <c r="D97" t="n">
-        <v>16.49</v>
+        <v>19.19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sorvete Napolitano Nestlé 1,5 Litros</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>29.99</v>
-      </c>
+          <t>Refrigerante Coca-Cola Garrafa 2 L</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>29.99</v>
+        <v>11.49</v>
       </c>
       <c r="D98" t="n">
-        <v>29.99</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Tomate Carmem Carrefour Aprox. 500g</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.008</v>
-      </c>
+          <t>Refrigerante Fanta Laranja 2L</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>0.008</v>
+        <v>9.69</v>
       </c>
       <c r="D99" t="n">
-        <v>9.99</v>
+        <v>9.69</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Uva Escura sem Semente Carrefour 500g</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>7.99</v>
-      </c>
+          <t>Refrigerante Guaraná Antarctica Garrafa 2L</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>6.99</v>
+        <v>9.49</v>
       </c>
       <c r="D100" t="n">
-        <v>6.99</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Água Mineral Crystal Sem Gás 1,5L</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
+          <t>Salsicha Hot Dog Resfriada Aurora Aproximadamente 500 g</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>16.49</v>
+      </c>
       <c r="C101" t="n">
-        <v>3.39</v>
+        <v>16.49</v>
       </c>
       <c r="D101" t="n">
-        <v>3.39</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Água Mineral sem Gás Frescca 1,5 Litros</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
+          <t>Sorvete Napolitano Nestlé 1,5 Litros</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>29.99</v>
+      </c>
       <c r="C102" t="n">
-        <v>2.59</v>
+        <v>29.99</v>
       </c>
       <c r="D102" t="n">
-        <v>2.59</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Água Mineral sem Gás Minalba 1,5 Litros</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr"/>
+          <t>Tomate Carmem Carrefour Aprox. 500g</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.008</v>
+      </c>
       <c r="C103" t="n">
-        <v>3.59</v>
+        <v>0.008</v>
       </c>
       <c r="D103" t="n">
-        <v>3.59</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Água Mineral sem Gás Nestlé Pureza Vital 1,5 Litros</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
+          <t>Uva Escura sem Semente Carrefour 500g</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>7.99</v>
+      </c>
       <c r="C104" t="n">
-        <v>3.29</v>
+        <v>6.99</v>
       </c>
       <c r="D104" t="n">
-        <v>3.29</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Óleo de Soja Soya 900ml</t>
+          <t>Água Mineral Crystal Sem Gás 1,5L</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>7.59</v>
+        <v>3.39</v>
       </c>
       <c r="D105" t="n">
-        <v>7.79</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Óleo de Soja Vitaliv Garrafa 900 ml</t>
+          <t>Água Mineral sem Gás Frescca 1,5 Litros</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Água Mineral sem Gás Minalba 1,5 Litros</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Água Mineral sem Gás Nestlé Pureza Vital 1,5 Litros</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Óleo de Soja Soya 900ml</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="n">
         <v>7.59</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D109" t="n">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Óleo de Soja Vitaliv Garrafa 900 ml</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="D110" t="n">
         <v>7.89</v>
       </c>
     </row>
